--- a/Excel/TI/Mon_TI_2024_11_23.xlsx
+++ b/Excel/TI/Mon_TI_2024_11_23.xlsx
@@ -628,211 +628,221 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Nikola Jokić</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F2" t="n">
-        <v>44.6</v>
+        <v>65.8</v>
       </c>
       <c r="G2" t="n">
-        <v>33.5</v>
+        <v>61.8</v>
       </c>
       <c r="H2" t="n">
-        <v>34.5</v>
+        <v>61.8</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N2" t="n">
+        <v>66</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>85</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AL2" t="n">
         <v>2</v>
       </c>
-      <c r="K2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6</v>
-      </c>
-      <c r="N2" t="n">
-        <v>59</v>
-      </c>
-      <c r="O2" t="n">
-        <v>26</v>
-      </c>
-      <c r="P2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>53</v>
-      </c>
-      <c r="R2" t="n">
-        <v>38</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>CHA</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>BKN</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>BKN</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>33.2</v>
+        <v>44.6</v>
       </c>
       <c r="G3" t="n">
-        <v>31.4</v>
+        <v>33.5</v>
       </c>
       <c r="H3" t="n">
-        <v>31.4</v>
+        <v>34.5</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
         <v>3</v>
       </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="O3" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P3" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="R3" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -841,16 +851,18 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
-        <v>38</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -879,32 +891,32 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -918,92 +930,90 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>-3.4</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>2</v>
-      </c>
+        <v>3.8</v>
+      </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F4" t="n">
-        <v>33.8</v>
+        <v>29.4</v>
       </c>
       <c r="G4" t="n">
-        <v>28.6</v>
+        <v>31.4</v>
       </c>
       <c r="H4" t="n">
-        <v>28.6</v>
+        <v>31.4</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
         <v>3</v>
       </c>
-      <c r="K4" t="n">
-        <v>4</v>
-      </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
+        <v>31</v>
+      </c>
+      <c r="O4" t="n">
+        <v>43</v>
+      </c>
+      <c r="P4" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>28</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
         <v>38</v>
       </c>
-      <c r="O4" t="n">
-        <v>40</v>
-      </c>
-      <c r="P4" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>42</v>
-      </c>
-      <c r="R4" t="n">
-        <v>21</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="W4" t="inlineStr">
         <is>
           <t>-</t>
@@ -1026,22 +1036,22 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1051,7 +1061,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1061,7 +1071,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1070,20 +1080,24 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+        <v>-2.8</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1092,144 +1106,136 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>28.2</v>
+        <v>33.8</v>
       </c>
       <c r="G5" t="n">
-        <v>26.9</v>
+        <v>28.6</v>
       </c>
       <c r="H5" t="n">
-        <v>26.9</v>
+        <v>28.6</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O5" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="P5" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R5" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
           <t>LAL</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>2</v>
-      </c>
+        <v>-3.8</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1239,13 +1245,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1254,148 +1260,148 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="G6" t="n">
-        <v>25.5</v>
+        <v>27.1</v>
       </c>
       <c r="H6" t="n">
-        <v>25.5</v>
+        <v>27.1</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
         <v>4</v>
       </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
       <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>29</v>
+      </c>
+      <c r="O6" t="n">
+        <v>35</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>36</v>
+      </c>
+      <c r="R6" t="n">
+        <v>32</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL6" t="n">
         <v>2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>40</v>
-      </c>
-      <c r="O6" t="n">
-        <v>18</v>
-      </c>
-      <c r="P6" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>17</v>
-      </c>
-      <c r="R6" t="n">
-        <v>39</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ6" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1404,45 +1410,49 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F7" t="n">
-        <v>23.2</v>
+        <v>31</v>
       </c>
       <c r="G7" t="n">
-        <v>24.1</v>
+        <v>25.8</v>
       </c>
       <c r="H7" t="n">
-        <v>23.1</v>
+        <v>25.8</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
         <v>3</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
       <c r="N7" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="O7" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="P7" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R7" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1451,7 +1461,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1491,17 +1501,17 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1511,17 +1521,17 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1530,67 +1540,75 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
+        <v>-1.4</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-25.8</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F8" t="n">
-        <v>25.8</v>
+        <v>24.4</v>
       </c>
       <c r="G8" t="n">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="H8" t="n">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O8" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P8" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1599,7 +1617,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1639,7 +1657,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1649,7 +1667,7 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -1659,7 +1677,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1669,7 +1687,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1678,69 +1696,71 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
+        <v>-0.4</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>19.4</v>
+        <v>23.2</v>
       </c>
       <c r="G9" t="n">
         <v>24.1</v>
       </c>
       <c r="H9" t="n">
-        <v>24.1</v>
+        <v>23.1</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q9" t="n">
-        <v>26</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="R9" t="n">
+        <v>18</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1749,16 +1769,18 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
-        <v>47</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1787,27 +1809,27 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1817,7 +1839,7 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1826,7 +1848,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
@@ -1834,63 +1856,59 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>27.8</v>
+        <v>25.8</v>
       </c>
       <c r="G10" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="H10" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="O10" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="P10" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q10" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R10" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1899,7 +1917,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1939,17 +1957,17 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -1959,17 +1977,17 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -1978,24 +1996,20 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>-23.8</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
+        <v>-4.2</v>
+      </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -2006,63 +2020,63 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>15.8</v>
+        <v>19.4</v>
       </c>
       <c r="G11" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="H11" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="O11" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="n">
-        <v>31</v>
-      </c>
-      <c r="R11" t="n">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>47</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -2086,22 +2100,22 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2111,26 +2125,26 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
@@ -2158,19 +2172,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>33</v>
+        <v>31.8</v>
       </c>
       <c r="G12" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="H12" t="n">
-        <v>23.6</v>
+        <v>22.9</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
         <v>4</v>
@@ -2182,20 +2196,20 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
+        <v>12</v>
+      </c>
+      <c r="O12" t="n">
         <v>28</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>34</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>51</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>34</v>
       </c>
-      <c r="R12" t="n">
-        <v>18</v>
-      </c>
       <c r="S12" t="inlineStr">
         <is>
           <t>vs</t>
@@ -2208,13 +2222,11 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>12</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -2282,10 +2294,10 @@
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="AK12" t="n">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2294,77 +2306,79 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>23</v>
+        <v>15.8</v>
       </c>
       <c r="G13" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
       </c>
       <c r="H13" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
         <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="P13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="R13" t="n">
-        <v>-5</v>
+        <v>18</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V13" t="n">
-        <v>8</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -2388,22 +2402,22 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2413,26 +2427,26 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>-6.6</v>
+        <v>2.1</v>
       </c>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
@@ -2440,42 +2454,38 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>25.8</v>
+        <v>30.6</v>
       </c>
       <c r="G14" t="n">
-        <v>21.8</v>
+        <v>23.5</v>
       </c>
       <c r="H14" t="n">
-        <v>21.5</v>
+        <v>23.5</v>
       </c>
       <c r="I14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
         <v>2</v>
@@ -2483,40 +2493,42 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
-      <c r="N14" t="n">
-        <v>5</v>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O14" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P14" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q14" t="n">
-        <v>21</v>
-      </c>
-      <c r="R14" t="n">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>29</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -2540,22 +2552,22 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -2565,114 +2577,104 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>-4.3</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>3</v>
-      </c>
+        <v>2.3</v>
+      </c>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>18.2</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>21.6</v>
+        <v>22.9</v>
       </c>
       <c r="H15" t="n">
-        <v>21.8</v>
+        <v>22.9</v>
       </c>
       <c r="I15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>3</v>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
       <c r="N15" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="O15" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="P15" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R15" t="n">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>8</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -2696,22 +2698,22 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -2721,49 +2723,45 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>3</v>
-      </c>
+        <v>-6.6</v>
+      </c>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2772,63 +2770,61 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>17.8</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>20.1</v>
+        <v>22.6</v>
       </c>
       <c r="H16" t="n">
-        <v>20.1</v>
+        <v>21.8</v>
       </c>
       <c r="I16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J16" t="n">
         <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
       <c r="N16" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O16" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P16" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="R16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>26</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -2857,7 +2853,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -2867,7 +2863,7 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
@@ -2877,49 +2873,49 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
           <t>SAC</t>
         </is>
       </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>-4</v>
+        <v>1.7</v>
       </c>
       <c r="AK16" t="n">
-        <v>-9.699999999999999</v>
+        <v>-4.6</v>
       </c>
       <c r="AL16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2928,63 +2924,61 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>17.2</v>
       </c>
       <c r="G17" t="n">
-        <v>18.6</v>
+        <v>20.8</v>
       </c>
       <c r="H17" t="n">
-        <v>18.6</v>
+        <v>21.4</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>16</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="Q17" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="R17" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>15</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -3008,34 +3002,34 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
           <t>OKC</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
       <c r="AG17" t="inlineStr">
         <is>
           <t>@</t>
@@ -3043,93 +3037,97 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>0.6</v>
+        <v>-4.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>16.8</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>18.2</v>
+        <v>20.6</v>
       </c>
       <c r="H18" t="n">
-        <v>18.2</v>
+        <v>20.6</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="N18" t="n">
-        <v>30</v>
-      </c>
-      <c r="O18" t="n">
-        <v>16</v>
-      </c>
-      <c r="P18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>9</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R18" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -3164,12 +3162,12 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3179,43 +3177,39 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
           <t>UTA</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>2</v>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3225,7 +3219,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -3240,43 +3234,43 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>17.6</v>
+        <v>15.6</v>
       </c>
       <c r="G19" t="n">
-        <v>16.8</v>
+        <v>19.7</v>
       </c>
       <c r="H19" t="n">
-        <v>16.8</v>
+        <v>19.4</v>
       </c>
       <c r="I19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q19" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="R19" t="n">
-        <v>-3</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -3290,13 +3284,11 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
+        <v>9</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -3364,10 +3356,10 @@
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>1.3</v>
+        <v>-4.2</v>
       </c>
       <c r="AK19" t="n">
-        <v>-3.5</v>
+        <v>-8.6</v>
       </c>
       <c r="AL19" t="n">
         <v>4</v>
@@ -3376,189 +3368,201 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dalton Knecht</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F20" t="n">
-        <v>35.4</v>
+        <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>16.1</v>
+        <v>18.3</v>
       </c>
       <c r="H20" t="n">
-        <v>16.1</v>
+        <v>18.3</v>
       </c>
       <c r="I20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" t="n">
+        <v>8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>20</v>
+      </c>
+      <c r="O20" t="n">
+        <v>30</v>
+      </c>
+      <c r="P20" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>10</v>
+      </c>
+      <c r="R20" t="n">
         <v>9</v>
       </c>
-      <c r="K20" t="n">
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AL20" t="n">
         <v>2</v>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" t="n">
-        <v>21</v>
-      </c>
-      <c r="O20" t="n">
-        <v>60</v>
-      </c>
-      <c r="P20" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>18</v>
-      </c>
-      <c r="R20" t="n">
-        <v>35</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F21" t="n">
-        <v>12.4</v>
+        <v>13.2</v>
       </c>
       <c r="G21" t="n">
-        <v>15.3</v>
+        <v>17.9</v>
       </c>
       <c r="H21" t="n">
-        <v>15.3</v>
+        <v>17.9</v>
       </c>
       <c r="I21" t="n">
         <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -3567,127 +3571,127 @@
         <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q21" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
           <t>DEN</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="AG21" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nikola Jokić</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Deni Avdija</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3696,49 +3700,43 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>63.8</v>
+        <v>21.6</v>
       </c>
       <c r="G22" t="n">
-        <v>61.4</v>
+        <v>16.3</v>
       </c>
       <c r="H22" t="n">
-        <v>61.4</v>
+        <v>16.8</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
+        <v>11</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>10</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N22" t="n">
+        <v>17</v>
+      </c>
+      <c r="O22" t="n">
+        <v>19</v>
+      </c>
+      <c r="P22" t="n">
+        <v>28</v>
       </c>
       <c r="Q22" t="n">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="R22" t="n">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -3747,18 +3745,16 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
+        <v>17</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -3782,12 +3778,12 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -3797,17 +3793,17 @@
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -3817,7 +3813,7 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -3826,31 +3822,27 @@
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="AK22" t="n">
-        <v>4.5</v>
+        <v>-3.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Dalton Knecht</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
           <t>F</t>
@@ -3858,53 +3850,43 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>43.8</v>
+        <v>35.4</v>
       </c>
       <c r="G23" t="n">
-        <v>43.8</v>
+        <v>16.1</v>
       </c>
       <c r="H23" t="n">
-        <v>43.8</v>
+        <v>16.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>21</v>
+      </c>
+      <c r="O23" t="n">
+        <v>60</v>
+      </c>
+      <c r="P23" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>18</v>
+      </c>
+      <c r="R23" t="n">
+        <v>35</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -3913,7 +3895,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -3953,27 +3935,27 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -3983,7 +3965,7 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
@@ -3992,7 +3974,7 @@
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>10.7</v>
+        <v>2.5</v>
       </c>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
@@ -4000,19 +3982,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>D'Angelo Russell</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
           <t>G</t>
@@ -4020,62 +3998,52 @@
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>34.2</v>
+        <v>12.4</v>
       </c>
       <c r="G24" t="n">
-        <v>32.4</v>
+        <v>15.3</v>
       </c>
       <c r="H24" t="n">
-        <v>32.4</v>
+        <v>15.3</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>14</v>
+      </c>
+      <c r="P24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>24</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -4110,22 +4078,22 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
@@ -4135,26 +4103,26 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ24" t="n">
-        <v>1.1</v>
+        <v>-1.8</v>
       </c>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
@@ -4162,12 +4130,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Deandre Ayton</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4177,37 +4145,33 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>22.4</v>
+        <v>43.8</v>
       </c>
       <c r="G25" t="n">
-        <v>25.1</v>
+        <v>43.8</v>
       </c>
       <c r="H25" t="n">
-        <v>25.1</v>
+        <v>43.8</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -4229,17 +4193,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R25" t="n">
-        <v>12</v>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -4279,63 +4245,59 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>-6.1</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>3</v>
-      </c>
+        <v>10.7</v>
+      </c>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4345,27 +4307,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>30.6</v>
+        <v>34.2</v>
       </c>
       <c r="G26" t="n">
-        <v>23.5</v>
+        <v>32.4</v>
       </c>
       <c r="H26" t="n">
-        <v>23.5</v>
+        <v>32.4</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3</v>
       </c>
       <c r="L26" t="n">
         <v>2</v>
@@ -4378,14 +4340,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O26" t="n">
-        <v>28</v>
-      </c>
-      <c r="P26" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>29</v>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -4399,16 +4367,18 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V26" t="n">
-        <v>29</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -4437,7 +4407,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -4447,7 +4417,7 @@
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
@@ -4457,7 +4427,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -4467,7 +4437,7 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
@@ -4476,7 +4446,7 @@
         </is>
       </c>
       <c r="AJ26" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
@@ -4484,12 +4454,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rui Hachimura</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4499,33 +4469,37 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>22.4</v>
       </c>
       <c r="G27" t="n">
-        <v>20.6</v>
+        <v>25.1</v>
       </c>
       <c r="H27" t="n">
-        <v>20.6</v>
+        <v>25.1</v>
       </c>
       <c r="I27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -4547,17 +4521,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R27" t="n">
-        <v>40</v>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -4597,7 +4573,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -4607,7 +4583,7 @@
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
@@ -4617,29 +4593,33 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
+        <v>1.7</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
